--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,100 +49,100 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -154,19 +151,19 @@
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
       <c r="M6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3571428571428572</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,195 +808,123 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C8">
-        <v>72</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>161</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>67</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.175</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1037,21 +962,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1063,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1089,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1115,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1141,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.76</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1167,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1193,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7307692307692307</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1219,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7241379310344828</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1245,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.7123287671232876</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1271,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1297,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.631578947368421</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1323,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1349,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1375,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.55</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1401,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5454545454545454</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1427,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5454545454545454</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1453,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.539906103286385</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L29">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="M29">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1479,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5357142857142857</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1505,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1531,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4651162790697674</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1557,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4583333333333333</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1583,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1609,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3695652173913043</v>
+        <v>0.3125</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1635,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2702702702702703</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1661,7 +1586,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.006437077566784679</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,72 +70,72 @@
     <t>strong</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -145,25 +145,19 @@
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -740,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1802325581395349</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1587301587301587</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +860,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -918,13 +912,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -944,13 +938,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -970,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -996,13 +990,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1022,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1048,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1074,13 +1068,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7253521126760564</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1100,13 +1094,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7169811320754716</v>
+        <v>0.725</v>
       </c>
       <c r="L18">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1152,13 +1146,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.69375</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1178,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1204,13 +1198,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6388888888888888</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1230,13 +1224,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1256,13 +1250,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1282,13 +1276,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1308,13 +1302,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1334,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4986945169712794</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L27">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M27">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1360,13 +1354,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4888888888888889</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1386,13 +1380,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4705882352941176</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L29">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1412,13 +1406,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4269662921348314</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1438,13 +1432,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4203389830508474</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L31">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M31">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1456,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1464,13 +1458,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1482,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1490,13 +1484,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3698630136986301</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1508,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1516,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3514644351464435</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L34">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>155</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1542,13 +1536,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3125</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1560,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1568,13 +1562,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3076923076923077</v>
+        <v>0.296875</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1586,59 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37">
-        <v>0.02237136465324385</v>
-      </c>
-      <c r="L37">
-        <v>20</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38">
-        <v>0.006437077566784679</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>3087</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
